--- a/Data/DEM01_BusinessDemo_EntryExit_117grouping.xlsx
+++ b/Data/DEM01_BusinessDemo_EntryExit_117grouping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MasterThesis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95F3C6E-DCD2-4572-9AF7-9A602EDB249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD300890-8CB3-4FEC-9130-53BC307084F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="156">
   <si>
     <t>Business Demography by unit, status, industry (DB07 127-grouping) and time</t>
   </si>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C132"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133:C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9729,6 +9729,9 @@
       <c r="B133" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="C133" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="D133" s="4">
         <v>29953</v>
       </c>
@@ -9794,6 +9797,9 @@
       </c>
     </row>
     <row r="134" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C134" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D134" s="4">
         <v>3261</v>
       </c>
@@ -9859,6 +9865,9 @@
       </c>
     </row>
     <row r="135" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C135" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D135" s="4">
         <v>341</v>
       </c>
@@ -9924,6 +9933,9 @@
       </c>
     </row>
     <row r="136" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C136" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D136" s="4">
         <v>125</v>
       </c>
@@ -9989,6 +10001,9 @@
       </c>
     </row>
     <row r="137" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C137" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D137" s="4">
         <v>0</v>
       </c>
@@ -10054,6 +10069,9 @@
       </c>
     </row>
     <row r="138" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C138" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D138" s="4">
         <v>14</v>
       </c>
@@ -10119,6 +10137,9 @@
       </c>
     </row>
     <row r="139" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C139" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D139" s="4">
         <v>4</v>
       </c>
@@ -10184,6 +10205,9 @@
       </c>
     </row>
     <row r="140" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C140" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D140" s="4">
         <v>14</v>
       </c>
@@ -10249,6 +10273,9 @@
       </c>
     </row>
     <row r="141" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C141" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D141" s="4">
         <v>7</v>
       </c>
@@ -10314,6 +10341,9 @@
       </c>
     </row>
     <row r="142" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C142" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="D142" s="4">
         <v>4</v>
       </c>
@@ -10379,6 +10409,9 @@
       </c>
     </row>
     <row r="143" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C143" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D143" s="4">
         <v>74</v>
       </c>
@@ -10444,6 +10477,9 @@
       </c>
     </row>
     <row r="144" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C144" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="D144" s="4">
         <v>16</v>
       </c>
@@ -10508,7 +10544,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C145" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D145" s="4">
         <v>7</v>
       </c>
@@ -10573,7 +10612,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C146" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D146" s="4">
         <v>0</v>
       </c>
@@ -10638,7 +10680,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C147" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D147" s="4">
         <v>26</v>
       </c>
@@ -10703,7 +10748,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C148" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="D148" s="4">
         <v>48</v>
       </c>
@@ -10768,7 +10816,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C149" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="D149" s="4">
         <v>5</v>
       </c>
@@ -10833,7 +10884,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C150" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D150" s="4">
         <v>55</v>
       </c>
@@ -10898,7 +10952,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C151" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D151" s="4">
         <v>6</v>
       </c>
@@ -10963,7 +11020,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C152" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="D152" s="4">
         <v>81</v>
       </c>
@@ -11028,7 +11088,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C153" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D153" s="4">
         <v>0</v>
       </c>
@@ -11093,7 +11156,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C154" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D154" s="4">
         <v>3</v>
       </c>
@@ -11158,7 +11224,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C155" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="D155" s="4">
         <v>13</v>
       </c>
@@ -11223,7 +11292,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C156" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="D156" s="4">
         <v>10</v>
       </c>
@@ -11288,7 +11360,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C157" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D157" s="4">
         <v>41</v>
       </c>
@@ -11353,7 +11428,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C158" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="D158" s="4">
         <v>27</v>
       </c>
@@ -11418,7 +11496,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C159" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D159" s="4">
         <v>16</v>
       </c>
@@ -11483,7 +11564,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C160" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D160" s="4">
         <v>29</v>
       </c>
@@ -11548,7 +11632,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C161" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D161" s="4">
         <v>210</v>
       </c>
@@ -11613,7 +11700,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C162" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="D162" s="4">
         <v>26</v>
       </c>
@@ -11678,7 +11768,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="163" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C163" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D163" s="4">
         <v>27</v>
       </c>
@@ -11743,7 +11836,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C164" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D164" s="4">
         <v>10</v>
       </c>
@@ -11808,7 +11904,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C165" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D165" s="4">
         <v>3</v>
       </c>
@@ -11873,7 +11972,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C166" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D166" s="4">
         <v>21</v>
       </c>
@@ -11938,7 +12040,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C167" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="D167" s="4">
         <v>14</v>
       </c>
@@ -12003,7 +12108,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C168" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D168" s="4">
         <v>75</v>
       </c>
@@ -12068,7 +12176,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="169" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C169" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="D169" s="4">
         <v>5</v>
       </c>
@@ -12133,7 +12244,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C170" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="D170" s="4">
         <v>4</v>
       </c>
@@ -12198,7 +12312,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C171" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="D171" s="4">
         <v>24</v>
       </c>
@@ -12263,7 +12380,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C172" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D172" s="4">
         <v>34</v>
       </c>
@@ -12328,7 +12448,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C173" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D173" s="4">
         <v>70</v>
       </c>
@@ -12393,7 +12516,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="174" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C174" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="D174" s="4">
         <v>185</v>
       </c>
@@ -12458,7 +12584,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C175" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="D175" s="4">
         <v>166</v>
       </c>
@@ -12523,7 +12652,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="176" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C176" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="D176" s="4">
         <v>2</v>
       </c>
@@ -12588,7 +12720,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C177" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="D177" s="4">
         <v>10</v>
       </c>
@@ -12653,7 +12788,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C178" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D178" s="4">
         <v>43</v>
       </c>
@@ -12718,7 +12856,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C179" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="D179" s="4">
         <v>11</v>
       </c>
@@ -12783,7 +12924,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C180" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="D180" s="4">
         <v>18</v>
       </c>
@@ -12848,7 +12992,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C181" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D181" s="4">
         <v>0</v>
       </c>
@@ -12913,7 +13060,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C182" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="D182" s="4">
         <v>406</v>
       </c>
@@ -12978,7 +13128,10 @@
         <v>562</v>
       </c>
     </row>
-    <row r="183" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C183" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D183" s="4">
         <v>72</v>
       </c>
@@ -13043,7 +13196,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="184" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C184" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D184" s="4">
         <v>521</v>
       </c>
@@ -13108,7 +13264,10 @@
         <v>548</v>
       </c>
     </row>
-    <row r="185" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C185" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D185" s="4">
         <v>1148</v>
       </c>
@@ -13173,7 +13332,10 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="186" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C186" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D186" s="4">
         <v>681</v>
       </c>
@@ -13238,7 +13400,10 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="187" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C187" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D187" s="4">
         <v>154</v>
       </c>
@@ -13303,7 +13468,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="188" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C188" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D188" s="4">
         <v>355</v>
       </c>
@@ -13368,7 +13536,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="189" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C189" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D189" s="4">
         <v>143</v>
       </c>
@@ -13433,7 +13604,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="190" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C190" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D190" s="4">
         <v>50</v>
       </c>
@@ -13498,7 +13672,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C191" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D191" s="4">
         <v>197</v>
       </c>
@@ -13563,7 +13740,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="192" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C192" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D192" s="4">
         <v>432</v>
       </c>
@@ -13628,7 +13808,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C193" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D193" s="4">
         <v>153</v>
       </c>
@@ -13693,7 +13876,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="194" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C194" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D194" s="4">
         <v>241</v>
       </c>
@@ -13758,7 +13944,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="195" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C195" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D195" s="4">
         <v>351</v>
       </c>
@@ -13823,7 +14012,10 @@
         <v>170</v>
       </c>
     </row>
-    <row r="196" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C196" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D196" s="4">
         <v>357</v>
       </c>
@@ -13888,7 +14080,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="197" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C197" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D197" s="4">
         <v>408</v>
       </c>
@@ -13953,7 +14148,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="198" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C198" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D198" s="4">
         <v>35</v>
       </c>
@@ -14018,7 +14216,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C199" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D199" s="4">
         <v>182</v>
       </c>
@@ -14083,7 +14284,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C200" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D200" s="4">
         <v>782</v>
       </c>
@@ -14148,7 +14352,10 @@
         <v>618</v>
       </c>
     </row>
-    <row r="201" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C201" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D201" s="4">
         <v>160</v>
       </c>
@@ -14213,7 +14420,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="202" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C202" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D202" s="4">
         <v>378</v>
       </c>
@@ -14278,7 +14488,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="203" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C203" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D203" s="4">
         <v>210</v>
       </c>
@@ -14343,7 +14556,10 @@
         <v>597</v>
       </c>
     </row>
-    <row r="204" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C204" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="D204" s="4">
         <v>3</v>
       </c>
@@ -14408,7 +14624,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C205" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="D205" s="4">
         <v>362</v>
       </c>
@@ -14473,7 +14692,10 @@
         <v>504</v>
       </c>
     </row>
-    <row r="206" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C206" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D206" s="4">
         <v>639</v>
       </c>
@@ -14538,7 +14760,10 @@
         <v>367</v>
       </c>
     </row>
-    <row r="207" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C207" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="D207" s="4">
         <v>43</v>
       </c>
@@ -14603,7 +14828,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C208" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="D208" s="4">
         <v>18</v>
       </c>
@@ -14668,7 +14896,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C209" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="D209" s="4">
         <v>138</v>
       </c>
@@ -14733,7 +14964,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="210" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C210" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="D210" s="4">
         <v>189</v>
       </c>
@@ -14798,7 +15032,10 @@
         <v>584</v>
       </c>
     </row>
-    <row r="211" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C211" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="D211" s="4">
         <v>104</v>
       </c>
@@ -14863,7 +15100,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="212" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C212" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D212" s="4">
         <v>1890</v>
       </c>
@@ -14928,7 +15168,10 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="213" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C213" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="D213" s="4">
         <v>134</v>
       </c>
@@ -14993,7 +15236,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="214" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C214" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="D214" s="4">
         <v>23</v>
       </c>
@@ -15058,7 +15304,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="215" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C215" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="D215" s="4">
         <v>235</v>
       </c>
@@ -15123,7 +15372,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="216" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C216" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="D216" s="4">
         <v>22</v>
       </c>
@@ -15188,7 +15440,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C217" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="D217" s="4">
         <v>56</v>
       </c>
@@ -15253,7 +15508,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C218" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="D218" s="4">
         <v>1473</v>
       </c>
@@ -15318,7 +15576,10 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="219" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C219" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="D219" s="4">
         <v>195</v>
       </c>
@@ -15383,7 +15644,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C220" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="D220" s="4">
         <v>10</v>
       </c>
@@ -15448,7 +15712,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C221" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D221" s="4">
         <v>869</v>
       </c>
@@ -15513,7 +15780,10 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="222" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C222" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="D222" s="4">
         <v>15</v>
       </c>
@@ -15578,7 +15848,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C223" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="D223" s="4">
         <v>193</v>
       </c>
@@ -15643,7 +15916,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="224" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C224" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="D224" s="4">
         <v>280</v>
       </c>
@@ -15708,7 +15984,10 @@
         <v>805</v>
       </c>
     </row>
-    <row r="225" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C225" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="D225" s="4">
         <v>156</v>
       </c>
@@ -15773,7 +16052,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="226" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C226" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D226" s="4">
         <v>1481</v>
       </c>
@@ -15838,7 +16120,10 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="227" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C227" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="D227" s="4">
         <v>91</v>
       </c>
@@ -15903,7 +16188,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="228" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C228" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D228" s="4">
         <v>359</v>
       </c>
@@ -15968,7 +16256,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="229" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C229" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="D229" s="4">
         <v>1253</v>
       </c>
@@ -16033,7 +16324,10 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="230" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C230" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="D230" s="4">
         <v>725</v>
       </c>
@@ -16098,7 +16392,10 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="231" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C231" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D231" s="4">
         <v>61</v>
       </c>
@@ -16163,7 +16460,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="232" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C232" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="D232" s="4">
         <v>423</v>
       </c>
@@ -16228,7 +16528,10 @@
         <v>543</v>
       </c>
     </row>
-    <row r="233" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C233" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D233" s="4">
         <v>616</v>
       </c>
@@ -16293,7 +16596,10 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="234" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C234" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="D234" s="4">
         <v>26</v>
       </c>
@@ -16358,7 +16664,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="235" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C235" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D235" s="4">
         <v>347</v>
       </c>
@@ -16423,7 +16732,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="236" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C236" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="D236" s="4">
         <v>115</v>
       </c>
@@ -16488,7 +16800,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="237" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C237" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D237" s="4">
         <v>64</v>
       </c>
@@ -16553,7 +16868,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="238" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C238" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D238" s="4">
         <v>45</v>
       </c>
@@ -16618,7 +16936,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="239" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C239" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D239" s="4">
         <v>906</v>
       </c>
@@ -16683,7 +17004,10 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="240" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C240" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D240" s="4">
         <v>240</v>
       </c>
@@ -16748,7 +17072,10 @@
         <v>594</v>
       </c>
     </row>
-    <row r="241" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C241" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="D241" s="4">
         <v>34</v>
       </c>
@@ -16813,7 +17140,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C242" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D242" s="4">
         <v>4</v>
       </c>
@@ -16878,7 +17208,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C243" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D243" s="4">
         <v>15</v>
       </c>
@@ -16943,7 +17276,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C244" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="D244" s="4">
         <v>13</v>
       </c>
@@ -17008,7 +17344,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C245" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="D245" s="4">
         <v>16</v>
       </c>
@@ -17073,7 +17412,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C246" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D246" s="4">
         <v>251</v>
       </c>
@@ -17138,7 +17480,10 @@
         <v>931</v>
       </c>
     </row>
-    <row r="247" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C247" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="D247" s="4">
         <v>1</v>
       </c>
@@ -17203,7 +17548,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C248" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="D248" s="4">
         <v>1229</v>
       </c>
@@ -17268,7 +17616,10 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="249" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C249" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="D249" s="4">
         <v>103</v>
       </c>
@@ -17333,7 +17684,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="250" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C250" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D250" s="4">
         <v>128</v>
       </c>
@@ -17398,7 +17752,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="251" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C251" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="D251" s="4">
         <v>245</v>
       </c>
@@ -17463,7 +17820,10 @@
         <v>767</v>
       </c>
     </row>
-    <row r="252" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C252" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D252" s="4">
         <v>19</v>
       </c>
@@ -17528,7 +17888,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C253" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="D253" s="4">
         <v>12</v>
       </c>
@@ -17593,7 +17956,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C254" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D254" s="4">
         <v>127</v>
       </c>
@@ -17658,7 +18024,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C255" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="D255" s="4">
         <v>32</v>
       </c>
@@ -17723,7 +18092,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C256" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="D256" s="4">
         <v>151</v>
       </c>
@@ -17789,6 +18161,9 @@
       </c>
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C257" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="D257" s="4">
         <v>187</v>
       </c>
@@ -17854,6 +18229,9 @@
       </c>
     </row>
     <row r="258" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C258" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="D258" s="4">
         <v>848</v>
       </c>
@@ -17919,6 +18297,9 @@
       </c>
     </row>
     <row r="259" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C259" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="D259" s="4">
         <v>29</v>
       </c>
@@ -17984,6 +18365,9 @@
       </c>
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C260" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D260" s="4">
         <v>1</v>
       </c>
@@ -18049,6 +18433,9 @@
       </c>
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C261" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D261" s="4">
         <v>108</v>
       </c>
